--- a/Data/challenge.xlsx
+++ b/Data/challenge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanda.primayansa\Documents\UiPath\Day3\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A30CDE-5772-4D46-8004-BC980BA9440B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88F680D-5AEA-4059-8AC0-61E9A92B7368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -617,7 +617,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
